--- a/var_www_html/RadioActivities/RandDExpeditionOct2020/Images/PrepAndDayOne/Day1Data.xlsx
+++ b/var_www_html/RadioActivities/RandDExpeditionOct2020/Images/PrepAndDayOne/Day1Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2138f6dcc7516b68/Pictures/Oct2020RandDExpedition/Oct2020RandDExpeditionWebSitePics/PrepAndDayOne/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{9D6F5152-87AE-4808-BAEB-2683B0AB77EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39F5240C-47ED-4438-821E-38DFD8C8D76A}"/>
+  <xr:revisionPtr revIDLastSave="485" documentId="8_{9D6F5152-87AE-4808-BAEB-2683B0AB77EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B48288E7-E7FC-4B35-BFB8-24D8F9E94D48}"/>
   <bookViews>
-    <workbookView xWindow="7032" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{7EF04DDE-3E72-48BA-8F81-8B23DB435DF7}"/>
+    <workbookView xWindow="4650" yWindow="720" windowWidth="22995" windowHeight="14880" xr2:uid="{7EF04DDE-3E72-48BA-8F81-8B23DB435DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,30 +34,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
-    <t>100 "</t>
+    <t>Run 3</t>
   </si>
   <si>
-    <t>200"</t>
+    <t>Run 4</t>
   </si>
   <si>
-    <t>300"</t>
+    <t>Run 5</t>
   </si>
   <si>
-    <t>400"</t>
+    <t>Run 6</t>
   </si>
   <si>
-    <t>Run # -&gt;</t>
+    <t>Run 7</t>
+  </si>
+  <si>
+    <t>Run 8</t>
+  </si>
+  <si>
+    <t>Run 9</t>
+  </si>
+  <si>
+    <t>Run 10</t>
+  </si>
+  <si>
+    <t>Range (inches)</t>
+  </si>
+  <si>
+    <t>Run 1</t>
+  </si>
+  <si>
+    <t>Run 2</t>
+  </si>
+  <si>
+    <t>Measured Results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 1
+19.5 inch antenna</t>
+    </r>
+  </si>
+  <si>
+    <t>Day 1
+34.5 inch antenna</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Day 1 - 19.5 inch antenna</t>
+    </r>
+  </si>
+  <si>
+    <t>Day 1 - 34.5 inch antenna</t>
+  </si>
+  <si>
+    <t>Results We Erroneously Expected
+R-Squared is Expected in Far Field, Not the Near Field</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -80,12 +180,209 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +398,2753 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Day 1 Results - dBm</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> v</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>s Range [100":500"]</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>Black: 19.5" Antenna - Measured, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Blue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>: 34.5" Antenna - Measured</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Red</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1"/>
+              <a:t>:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t> 19.5" Antenna - Expected,     </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Green</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" baseline="0"/>
+              <a:t>: 34.5" Antenna - Expected</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2333544194924895"/>
+          <c:y val="2.927478376580173E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.1793719707911712E-2"/>
+          <c:y val="0.14976339821929038"/>
+          <c:w val="0.87119685039370076"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="127000">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$4:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>19.5" Ant - Msrd - Run 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$4:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>34.5" Ant - Msrd - Run 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$4:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>34.5" Ant - Msrd - Run 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$4:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>91.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>104.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-603B-4363-B02F-383287C8E6E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.420599913279631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.942425094393258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.441199826559256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.620599913279619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.142425094393246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.641199826559244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.220599913279628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.742425094393255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.241199826559253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 6</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$33:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.220599913279628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.742425094393255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.241199826559253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>72.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.420599913279631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.942425094393258</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.441199826559256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.542425094393252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.04119982655925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 9</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>71.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.620599913279619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.142425094393246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.641199826559244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:v>19.5 Ant - Expected - Run 10</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$33:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$33:$I$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.520599913279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.042425094393252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.54119982655925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:v>34.5" Ant - Expected - Run 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$33:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>66.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.120599913279619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.642425094393246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.141199826559244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.079400086720369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:v>34.5" Ant - Expected - Run 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$33:$K$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$33:$M$37</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.542425094393252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.04119982655925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.979400086720375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-CD02-49CA-BB68-62893BF7B3AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="788118808"/>
+        <c:axId val="788117496"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="788118808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Range from receive antenna in inches</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788117496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="788117496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="115"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
+                  <a:t>Received signal strength (dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="788118808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE83F171-24F4-4CBE-AC01-83F9A811BF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,241 +3444,558 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7A4FDE-E672-40BE-9E16-07383E090683}">
-  <dimension ref="A3:I14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F3">
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="B1" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+    </row>
+    <row r="2" spans="1:14" ht="63" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="C4" s="8">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="D4" s="8">
+        <v>73.2</v>
+      </c>
+      <c r="E4" s="8">
+        <v>73.2</v>
+      </c>
+      <c r="F4" s="8">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="G4" s="8">
+        <v>72</v>
+      </c>
+      <c r="H4" s="8">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="I4" s="9">
+        <v>70.5</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="6">
+        <v>100</v>
+      </c>
+      <c r="L4" s="7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M4" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>200</v>
+      </c>
+      <c r="B5" s="10">
+        <v>88.9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>90</v>
+      </c>
+      <c r="D5" s="11">
+        <v>88.9</v>
+      </c>
+      <c r="E5" s="11">
+        <v>89.6</v>
+      </c>
+      <c r="F5" s="11">
+        <v>89.3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>87.3</v>
+      </c>
+      <c r="H5" s="11">
+        <v>87.3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>88.5</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="6">
+        <v>200</v>
+      </c>
+      <c r="L5" s="10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="M5" s="12">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>300</v>
+      </c>
+      <c r="B6" s="10">
+        <v>101</v>
+      </c>
+      <c r="C6" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="E6" s="11">
+        <v>101.4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>100.2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>97.5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="I6" s="12">
+        <v>99.4</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6">
+        <v>300</v>
+      </c>
+      <c r="L6" s="10">
+        <v>93.8</v>
+      </c>
+      <c r="M6" s="12">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>400</v>
+      </c>
+      <c r="B7" s="13">
+        <v>109.2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>108.5</v>
+      </c>
+      <c r="D7" s="14">
+        <v>108.5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>107.3</v>
+      </c>
+      <c r="F7" s="14">
+        <v>108.5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>105.7</v>
+      </c>
+      <c r="H7" s="14">
+        <v>105.7</v>
+      </c>
+      <c r="I7" s="15">
+        <v>107.7</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="6">
+        <v>400</v>
+      </c>
+      <c r="L7" s="10">
+        <v>101</v>
+      </c>
+      <c r="M7" s="12">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="3"/>
+      <c r="K8" s="6">
+        <v>500</v>
+      </c>
+      <c r="L8" s="16">
+        <v>105</v>
+      </c>
+      <c r="M8" s="17">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="K31" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
+      <c r="G32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="H32" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="I32" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G4">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H4">
+      <c r="L32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I4">
+      <c r="M32" s="27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>100</v>
+      </c>
+      <c r="B33" s="7">
         <v>74.400000000000006</v>
       </c>
-      <c r="C5">
+      <c r="C33" s="8">
         <v>73.599999999999994</v>
       </c>
-      <c r="D5">
+      <c r="D33" s="8">
         <v>73.2</v>
       </c>
-      <c r="E5">
+      <c r="E33" s="8">
         <v>73.2</v>
       </c>
-      <c r="F5">
+      <c r="F33" s="8">
         <v>72.400000000000006</v>
       </c>
-      <c r="G5">
+      <c r="G33" s="8">
         <v>72</v>
       </c>
-      <c r="H5">
+      <c r="H33" s="8">
         <v>71.599999999999994</v>
       </c>
-      <c r="I5">
+      <c r="I33" s="9">
         <v>70.5</v>
       </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="6">
+        <v>100</v>
+      </c>
+      <c r="L33" s="7">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M33" s="9">
+        <v>66</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>88.9</v>
-      </c>
-      <c r="C6">
-        <v>90</v>
-      </c>
-      <c r="D6">
-        <v>88.9</v>
-      </c>
-      <c r="E6">
-        <v>89.6</v>
-      </c>
-      <c r="F6">
-        <v>89.3</v>
-      </c>
-      <c r="G6">
-        <v>87.3</v>
-      </c>
-      <c r="H6">
-        <v>87.3</v>
-      </c>
-      <c r="I6">
-        <v>88.5</v>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>200</v>
+      </c>
+      <c r="B34" s="18">
+        <f>B$33-20*LOG10($A$33/$A34)</f>
+        <v>80.420599913279631</v>
+      </c>
+      <c r="C34" s="18">
+        <f t="shared" ref="C34:I36" si="0">C$33-20*LOG10($A$33/$A34)</f>
+        <v>79.620599913279619</v>
+      </c>
+      <c r="D34" s="18">
+        <f t="shared" si="0"/>
+        <v>79.220599913279628</v>
+      </c>
+      <c r="E34" s="18">
+        <f t="shared" si="0"/>
+        <v>79.220599913279628</v>
+      </c>
+      <c r="F34" s="18">
+        <f t="shared" si="0"/>
+        <v>78.420599913279631</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="0"/>
+        <v>78.020599913279625</v>
+      </c>
+      <c r="H34" s="18">
+        <f t="shared" si="0"/>
+        <v>77.620599913279619</v>
+      </c>
+      <c r="I34" s="20">
+        <f t="shared" si="0"/>
+        <v>76.520599913279625</v>
+      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="6">
+        <v>200</v>
+      </c>
+      <c r="L34" s="18">
+        <f>L$33-20*LOG10($K$33/$K34)</f>
+        <v>72.120599913279619</v>
+      </c>
+      <c r="M34" s="24">
+        <f>M$33-20*LOG10($K$33/$K34)</f>
+        <v>72.020599913279625</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>101</v>
-      </c>
-      <c r="C7">
-        <v>99.4</v>
-      </c>
-      <c r="D7">
-        <v>99.4</v>
-      </c>
-      <c r="E7">
-        <v>101.4</v>
-      </c>
-      <c r="F7">
-        <v>100.2</v>
-      </c>
-      <c r="G7">
-        <v>97.5</v>
-      </c>
-      <c r="H7">
-        <v>99.4</v>
-      </c>
-      <c r="I7">
-        <v>99.4</v>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>300</v>
+      </c>
+      <c r="B35" s="18">
+        <f t="shared" ref="B35:B36" si="1">B$33-20*LOG10($A$33/$A35)</f>
+        <v>83.942425094393258</v>
+      </c>
+      <c r="C35" s="18">
+        <f t="shared" si="0"/>
+        <v>83.142425094393246</v>
+      </c>
+      <c r="D35" s="18">
+        <f t="shared" si="0"/>
+        <v>82.742425094393255</v>
+      </c>
+      <c r="E35" s="18">
+        <f t="shared" si="0"/>
+        <v>82.742425094393255</v>
+      </c>
+      <c r="F35" s="18">
+        <f t="shared" si="0"/>
+        <v>81.942425094393258</v>
+      </c>
+      <c r="G35" s="18">
+        <f t="shared" si="0"/>
+        <v>81.542425094393252</v>
+      </c>
+      <c r="H35" s="18">
+        <f t="shared" si="0"/>
+        <v>81.142425094393246</v>
+      </c>
+      <c r="I35" s="20">
+        <f t="shared" si="0"/>
+        <v>80.042425094393252</v>
+      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="6">
+        <v>300</v>
+      </c>
+      <c r="L35" s="18">
+        <f t="shared" ref="L35:M37" si="2">L$33-20*LOG10($K$33/$K35)</f>
+        <v>75.642425094393246</v>
+      </c>
+      <c r="M35" s="24">
+        <f t="shared" si="2"/>
+        <v>75.542425094393252</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>109.2</v>
-      </c>
-      <c r="C8">
-        <v>108.5</v>
-      </c>
-      <c r="D8">
-        <v>108.5</v>
-      </c>
-      <c r="E8">
-        <v>107.3</v>
-      </c>
-      <c r="F8">
-        <v>108.5</v>
-      </c>
-      <c r="G8">
-        <v>105.7</v>
-      </c>
-      <c r="H8">
-        <v>105.7</v>
-      </c>
-      <c r="I8">
-        <v>107.7</v>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>400</v>
+      </c>
+      <c r="B36" s="21">
+        <f t="shared" si="1"/>
+        <v>86.441199826559256</v>
+      </c>
+      <c r="C36" s="21">
+        <f t="shared" si="0"/>
+        <v>85.641199826559244</v>
+      </c>
+      <c r="D36" s="21">
+        <f t="shared" si="0"/>
+        <v>85.241199826559253</v>
+      </c>
+      <c r="E36" s="21">
+        <f t="shared" si="0"/>
+        <v>85.241199826559253</v>
+      </c>
+      <c r="F36" s="21">
+        <f t="shared" si="0"/>
+        <v>84.441199826559256</v>
+      </c>
+      <c r="G36" s="21">
+        <f t="shared" si="0"/>
+        <v>84.04119982655925</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="0"/>
+        <v>83.641199826559244</v>
+      </c>
+      <c r="I36" s="22">
+        <f t="shared" si="0"/>
+        <v>82.54119982655925</v>
+      </c>
+      <c r="J36" s="23"/>
+      <c r="K36" s="6">
+        <v>400</v>
+      </c>
+      <c r="L36" s="18">
+        <f t="shared" si="2"/>
+        <v>78.141199826559244</v>
+      </c>
+      <c r="M36" s="24">
+        <f t="shared" si="2"/>
+        <v>78.04119982655925</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <f>20*LOG10(200)-20*LOG10(100)</f>
-        <v>6.0205999132796251</v>
-      </c>
-      <c r="C11">
-        <f>10*LOG10(B6/B5)</f>
-        <v>0.77328825424334968</v>
-      </c>
-      <c r="E11">
-        <v>72</v>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3"/>
+      <c r="K37" s="6">
+        <v>500</v>
+      </c>
+      <c r="L37" s="21">
+        <f t="shared" si="2"/>
+        <v>80.079400086720369</v>
+      </c>
+      <c r="M37" s="25">
+        <f t="shared" si="2"/>
+        <v>79.979400086720375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f>20*LOG10(300)-20*LOG10(100)</f>
-        <v>9.542425094393252</v>
-      </c>
-      <c r="C12">
-        <f>10*LOG10(B7/B5)</f>
-        <v>1.3274843823676385</v>
-      </c>
-      <c r="E12">
-        <v>87.3</v>
-      </c>
-      <c r="F12">
-        <f>10*LOG10(E12/E11)</f>
-        <v>0.83681747274301232</v>
-      </c>
-      <c r="G12">
-        <f>+E12-E11</f>
-        <v>15.299999999999997</v>
-      </c>
-      <c r="H12">
-        <f>LOG10(200)</f>
-        <v>2.3010299956639813</v>
-      </c>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f>20*LOG10(400)-20*LOG10(100)</f>
-        <v>12.04119982655925</v>
-      </c>
-      <c r="C13">
-        <f>10*LOG10(B8/B5)</f>
-        <v>1.6664970282283973</v>
-      </c>
-      <c r="E13">
-        <v>97.5</v>
-      </c>
-      <c r="F13">
-        <f>10*LOG10(E13/E11)</f>
-        <v>1.3167211926726838</v>
-      </c>
-      <c r="G13">
-        <f>E13-E11</f>
-        <v>25.5</v>
-      </c>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <v>105.7</v>
-      </c>
-      <c r="F14">
-        <f>10*LOG10(E14/E12)</f>
-        <v>0.83060743601856579</v>
-      </c>
-      <c r="G14">
-        <f>E14-E11</f>
-        <v>33.700000000000003</v>
-      </c>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="B1:N1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="72" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>